--- a/SumFinal_BasinReportWithReuse.xlsx
+++ b/SumFinal_BasinReportWithReuse.xlsx
@@ -390,7 +390,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">8/14/2018 5:43:05 PM
+            <t xml:space="preserve">8/9/2018 8:59:50 AM
 </t>
           </r>
           <r>
